--- a/model/input/BX_mfcc_features.xlsx
+++ b/model/input/BX_mfcc_features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
   <si>
     <t>category</t>
   </si>
@@ -386,6 +386,33 @@
   </si>
   <si>
     <t>2023-04-08_17h36m42s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h17m12s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h17m22s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h17m33s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h17m42s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h17m52s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h18m03s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h18m12s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h18m22s.wav</t>
+  </si>
+  <si>
+    <t>2023-04-09_05h18m32s.wav</t>
   </si>
 </sst>
 </file>
@@ -743,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY21"/>
+  <dimension ref="A1:CY30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7220,6 +7247,2778 @@
         <v>-0.01652162673108002</v>
       </c>
     </row>
+    <row r="22" spans="1:103">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22">
+        <v>-352.6526489257812</v>
+      </c>
+      <c r="E22">
+        <v>154.1195220947266</v>
+      </c>
+      <c r="F22">
+        <v>-4.14179515838623</v>
+      </c>
+      <c r="G22">
+        <v>23.98003768920898</v>
+      </c>
+      <c r="H22">
+        <v>7.140006542205811</v>
+      </c>
+      <c r="I22">
+        <v>14.76875400543213</v>
+      </c>
+      <c r="J22">
+        <v>7.830219745635986</v>
+      </c>
+      <c r="K22">
+        <v>9.65669059753418</v>
+      </c>
+      <c r="L22">
+        <v>1.500163435935974</v>
+      </c>
+      <c r="M22">
+        <v>9.039949417114258</v>
+      </c>
+      <c r="N22">
+        <v>2.59071946144104</v>
+      </c>
+      <c r="O22">
+        <v>6.11333179473877</v>
+      </c>
+      <c r="P22">
+        <v>0.7181487679481506</v>
+      </c>
+      <c r="Q22">
+        <v>4.391647815704346</v>
+      </c>
+      <c r="R22">
+        <v>1.679208517074585</v>
+      </c>
+      <c r="S22">
+        <v>3.029794216156006</v>
+      </c>
+      <c r="T22">
+        <v>0.38441002368927</v>
+      </c>
+      <c r="U22">
+        <v>3.482634305953979</v>
+      </c>
+      <c r="V22">
+        <v>-0.7766496539115906</v>
+      </c>
+      <c r="W22">
+        <v>3.423295021057129</v>
+      </c>
+      <c r="X22">
+        <v>-363.4599761962891</v>
+      </c>
+      <c r="Y22">
+        <v>151.2966384887695</v>
+      </c>
+      <c r="Z22">
+        <v>-8.810394287109375</v>
+      </c>
+      <c r="AA22">
+        <v>20.19744491577148</v>
+      </c>
+      <c r="AB22">
+        <v>4.243511199951172</v>
+      </c>
+      <c r="AC22">
+        <v>12.27036952972412</v>
+      </c>
+      <c r="AD22">
+        <v>5.41152286529541</v>
+      </c>
+      <c r="AE22">
+        <v>7.30047869682312</v>
+      </c>
+      <c r="AF22">
+        <v>-0.6430891156196594</v>
+      </c>
+      <c r="AG22">
+        <v>6.365849494934082</v>
+      </c>
+      <c r="AH22">
+        <v>0.4215639233589172</v>
+      </c>
+      <c r="AI22">
+        <v>3.601254940032959</v>
+      </c>
+      <c r="AJ22">
+        <v>-1.437077522277832</v>
+      </c>
+      <c r="AK22">
+        <v>2.098899006843567</v>
+      </c>
+      <c r="AL22">
+        <v>-0.4025967121124268</v>
+      </c>
+      <c r="AM22">
+        <v>0.7069414258003235</v>
+      </c>
+      <c r="AN22">
+        <v>-1.83085834980011</v>
+      </c>
+      <c r="AO22">
+        <v>0.7045047283172607</v>
+      </c>
+      <c r="AP22">
+        <v>-2.85243284702301</v>
+      </c>
+      <c r="AQ22">
+        <v>1.280322432518005</v>
+      </c>
+      <c r="AR22">
+        <v>-341.6093444824219</v>
+      </c>
+      <c r="AS22">
+        <v>158.2770843505859</v>
+      </c>
+      <c r="AT22">
+        <v>-0.9541591703891754</v>
+      </c>
+      <c r="AU22">
+        <v>28.36715793609619</v>
+      </c>
+      <c r="AV22">
+        <v>9.930389404296875</v>
+      </c>
+      <c r="AW22">
+        <v>17.04048728942871</v>
+      </c>
+      <c r="AX22">
+        <v>10.4234414100647</v>
+      </c>
+      <c r="AY22">
+        <v>11.90900611877441</v>
+      </c>
+      <c r="AZ22">
+        <v>3.681127190589905</v>
+      </c>
+      <c r="BA22">
+        <v>11.72161197662354</v>
+      </c>
+      <c r="BB22">
+        <v>4.864623308181763</v>
+      </c>
+      <c r="BC22">
+        <v>8.118522167205811</v>
+      </c>
+      <c r="BD22">
+        <v>2.735082864761353</v>
+      </c>
+      <c r="BE22">
+        <v>6.527422904968262</v>
+      </c>
+      <c r="BF22">
+        <v>3.916240811347961</v>
+      </c>
+      <c r="BG22">
+        <v>5.475302934646606</v>
+      </c>
+      <c r="BH22">
+        <v>2.737986207008362</v>
+      </c>
+      <c r="BI22">
+        <v>6.123301029205322</v>
+      </c>
+      <c r="BJ22">
+        <v>1.008800625801086</v>
+      </c>
+      <c r="BK22">
+        <v>5.721134185791016</v>
+      </c>
+      <c r="BL22">
+        <v>-1.041246738984076</v>
+      </c>
+      <c r="BM22">
+        <v>2.723460034467441</v>
+      </c>
+      <c r="BN22">
+        <v>1.773935879819271</v>
+      </c>
+      <c r="BO22">
+        <v>-0.2007245222105971</v>
+      </c>
+      <c r="BP22">
+        <v>-0.2879959270765426</v>
+      </c>
+      <c r="BQ22">
+        <v>0.2588625856102897</v>
+      </c>
+      <c r="BR22">
+        <v>-0.07469939970579631</v>
+      </c>
+      <c r="BS22">
+        <v>-0.04437849122443183</v>
+      </c>
+      <c r="BT22">
+        <v>0.06583867224962159</v>
+      </c>
+      <c r="BU22">
+        <v>-0.136940822161761</v>
+      </c>
+      <c r="BV22">
+        <v>-0.03340194576818467</v>
+      </c>
+      <c r="BW22">
+        <v>-0.260157591516764</v>
+      </c>
+      <c r="BX22">
+        <v>0.02766088669536115</v>
+      </c>
+      <c r="BY22">
+        <v>-0.01253750919852292</v>
+      </c>
+      <c r="BZ22">
+        <v>0.305733124008793</v>
+      </c>
+      <c r="CA22">
+        <v>-0.03503277786003789</v>
+      </c>
+      <c r="CB22">
+        <v>0.5472127514333405</v>
+      </c>
+      <c r="CC22">
+        <v>-0.3614219317230107</v>
+      </c>
+      <c r="CD22">
+        <v>-0.05622593034343559</v>
+      </c>
+      <c r="CE22">
+        <v>-0.1265042697495939</v>
+      </c>
+      <c r="CF22">
+        <v>-0.01932492103441127</v>
+      </c>
+      <c r="CG22">
+        <v>-1.373297208659301</v>
+      </c>
+      <c r="CH22">
+        <v>1.140593223058453</v>
+      </c>
+      <c r="CI22">
+        <v>-0.3285540432247562</v>
+      </c>
+      <c r="CJ22">
+        <v>0.1363968494772314</v>
+      </c>
+      <c r="CK22">
+        <v>0.04779591863966276</v>
+      </c>
+      <c r="CL22">
+        <v>-0.287129181396147</v>
+      </c>
+      <c r="CM22">
+        <v>0.1179360457246785</v>
+      </c>
+      <c r="CN22">
+        <v>-0.1931168817698995</v>
+      </c>
+      <c r="CO22">
+        <v>0.01153776677251179</v>
+      </c>
+      <c r="CP22">
+        <v>0.02314188043880526</v>
+      </c>
+      <c r="CQ22">
+        <v>0.2394245474871499</v>
+      </c>
+      <c r="CR22">
+        <v>0.1234110677917519</v>
+      </c>
+      <c r="CS22">
+        <v>0.1070446006785058</v>
+      </c>
+      <c r="CT22">
+        <v>-0.162084619850673</v>
+      </c>
+      <c r="CU22">
+        <v>-0.004795802232771138</v>
+      </c>
+      <c r="CV22">
+        <v>-0.1514216883498803</v>
+      </c>
+      <c r="CW22">
+        <v>0.0107803656543799</v>
+      </c>
+      <c r="CX22">
+        <v>0.1852113084061619</v>
+      </c>
+      <c r="CY22">
+        <v>-0.1317870717980829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:103">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23">
+        <v>-354.7434997558594</v>
+      </c>
+      <c r="E23">
+        <v>157.6641235351562</v>
+      </c>
+      <c r="F23">
+        <v>-2.240195751190186</v>
+      </c>
+      <c r="G23">
+        <v>25.99556541442871</v>
+      </c>
+      <c r="H23">
+        <v>6.313478946685791</v>
+      </c>
+      <c r="I23">
+        <v>10.47115612030029</v>
+      </c>
+      <c r="J23">
+        <v>11.39251041412354</v>
+      </c>
+      <c r="K23">
+        <v>6.624608516693115</v>
+      </c>
+      <c r="L23">
+        <v>1.79375946521759</v>
+      </c>
+      <c r="M23">
+        <v>10.10218715667725</v>
+      </c>
+      <c r="N23">
+        <v>0.03574482724070549</v>
+      </c>
+      <c r="O23">
+        <v>7.60568380355835</v>
+      </c>
+      <c r="P23">
+        <v>-0.3662055432796478</v>
+      </c>
+      <c r="Q23">
+        <v>1.867037653923035</v>
+      </c>
+      <c r="R23">
+        <v>1.991202473640442</v>
+      </c>
+      <c r="S23">
+        <v>2.148009061813354</v>
+      </c>
+      <c r="T23">
+        <v>0.1704594343900681</v>
+      </c>
+      <c r="U23">
+        <v>4.245278358459473</v>
+      </c>
+      <c r="V23">
+        <v>-1.711012601852417</v>
+      </c>
+      <c r="W23">
+        <v>4.399394989013672</v>
+      </c>
+      <c r="X23">
+        <v>-357.9731903076172</v>
+      </c>
+      <c r="Y23">
+        <v>155.062614440918</v>
+      </c>
+      <c r="Z23">
+        <v>-4.568617582321167</v>
+      </c>
+      <c r="AA23">
+        <v>21.69664287567139</v>
+      </c>
+      <c r="AB23">
+        <v>3.711099863052368</v>
+      </c>
+      <c r="AC23">
+        <v>8.40997838973999</v>
+      </c>
+      <c r="AD23">
+        <v>8.313772201538086</v>
+      </c>
+      <c r="AE23">
+        <v>4.499780654907227</v>
+      </c>
+      <c r="AF23">
+        <v>-1.011329412460327</v>
+      </c>
+      <c r="AG23">
+        <v>7.254457712173462</v>
+      </c>
+      <c r="AH23">
+        <v>-2.795414805412292</v>
+      </c>
+      <c r="AI23">
+        <v>5.167935609817505</v>
+      </c>
+      <c r="AJ23">
+        <v>-2.770826578140259</v>
+      </c>
+      <c r="AK23">
+        <v>-0.3737747073173523</v>
+      </c>
+      <c r="AL23">
+        <v>-0.6254684329032898</v>
+      </c>
+      <c r="AM23">
+        <v>-0.163239449262619</v>
+      </c>
+      <c r="AN23">
+        <v>-2.138418436050415</v>
+      </c>
+      <c r="AO23">
+        <v>1.815167546272278</v>
+      </c>
+      <c r="AP23">
+        <v>-3.66098940372467</v>
+      </c>
+      <c r="AQ23">
+        <v>1.691970229148865</v>
+      </c>
+      <c r="AR23">
+        <v>-351.7513427734375</v>
+      </c>
+      <c r="AS23">
+        <v>160.8675689697266</v>
+      </c>
+      <c r="AT23">
+        <v>0.6903564929962158</v>
+      </c>
+      <c r="AU23">
+        <v>29.03697204589844</v>
+      </c>
+      <c r="AV23">
+        <v>9.388915061950684</v>
+      </c>
+      <c r="AW23">
+        <v>13.3300666809082</v>
+      </c>
+      <c r="AX23">
+        <v>13.96078443527222</v>
+      </c>
+      <c r="AY23">
+        <v>9.369427680969238</v>
+      </c>
+      <c r="AZ23">
+        <v>4.262471914291382</v>
+      </c>
+      <c r="BA23">
+        <v>12.83759307861328</v>
+      </c>
+      <c r="BB23">
+        <v>2.931276559829712</v>
+      </c>
+      <c r="BC23">
+        <v>9.72214412689209</v>
+      </c>
+      <c r="BD23">
+        <v>2.195286870002747</v>
+      </c>
+      <c r="BE23">
+        <v>4.279000520706177</v>
+      </c>
+      <c r="BF23">
+        <v>4.611851930618286</v>
+      </c>
+      <c r="BG23">
+        <v>4.727704763412476</v>
+      </c>
+      <c r="BH23">
+        <v>2.491636395454407</v>
+      </c>
+      <c r="BI23">
+        <v>6.447858333587646</v>
+      </c>
+      <c r="BJ23">
+        <v>0.1982226520776749</v>
+      </c>
+      <c r="BK23">
+        <v>6.779493808746338</v>
+      </c>
+      <c r="BL23">
+        <v>3.154735893660072</v>
+      </c>
+      <c r="BM23">
+        <v>0.918274005371821</v>
+      </c>
+      <c r="BN23">
+        <v>0.6098386458782605</v>
+      </c>
+      <c r="BO23">
+        <v>1.971741818239376</v>
+      </c>
+      <c r="BP23">
+        <v>1.101334227223894</v>
+      </c>
+      <c r="BQ23">
+        <v>2.302110484221336</v>
+      </c>
+      <c r="BR23">
+        <v>1.060770075479739</v>
+      </c>
+      <c r="BS23">
+        <v>0.9570160985435598</v>
+      </c>
+      <c r="BT23">
+        <v>1.978896594764633</v>
+      </c>
+      <c r="BU23">
+        <v>0.4358095171077907</v>
+      </c>
+      <c r="BV23">
+        <v>0.5383784822325191</v>
+      </c>
+      <c r="BW23">
+        <v>1.892921679448756</v>
+      </c>
+      <c r="BX23">
+        <v>0.811726812170305</v>
+      </c>
+      <c r="BY23">
+        <v>0.8011092710952679</v>
+      </c>
+      <c r="BZ23">
+        <v>1.243729905060108</v>
+      </c>
+      <c r="CA23">
+        <v>0.3978389119784813</v>
+      </c>
+      <c r="CB23">
+        <v>1.845188872768918</v>
+      </c>
+      <c r="CC23">
+        <v>0.3756591364301243</v>
+      </c>
+      <c r="CD23">
+        <v>1.79910387038417</v>
+      </c>
+      <c r="CE23">
+        <v>0.8383116995118303</v>
+      </c>
+      <c r="CF23">
+        <v>1.104569358074572</v>
+      </c>
+      <c r="CG23">
+        <v>-0.8165078025357122</v>
+      </c>
+      <c r="CH23">
+        <v>-0.6740217684215856</v>
+      </c>
+      <c r="CI23">
+        <v>1.255675952213608</v>
+      </c>
+      <c r="CJ23">
+        <v>-0.6944022438385373</v>
+      </c>
+      <c r="CK23">
+        <v>-1.102466511712116</v>
+      </c>
+      <c r="CL23">
+        <v>0.6306341350294076</v>
+      </c>
+      <c r="CM23">
+        <v>-0.4372078456751823</v>
+      </c>
+      <c r="CN23">
+        <v>0.6781205381481352</v>
+      </c>
+      <c r="CO23">
+        <v>-0.02969635815555849</v>
+      </c>
+      <c r="CP23">
+        <v>-0.4057333979721771</v>
+      </c>
+      <c r="CQ23">
+        <v>0.2969323184537048</v>
+      </c>
+      <c r="CR23">
+        <v>-0.4157115063501426</v>
+      </c>
+      <c r="CS23">
+        <v>-0.07690768524960125</v>
+      </c>
+      <c r="CT23">
+        <v>0.2756114533311954</v>
+      </c>
+      <c r="CU23">
+        <v>-0.1562709977701119</v>
+      </c>
+      <c r="CV23">
+        <v>0.4684632650066292</v>
+      </c>
+      <c r="CW23">
+        <v>0.2010702273878633</v>
+      </c>
+      <c r="CX23">
+        <v>-0.2589276225891015</v>
+      </c>
+      <c r="CY23">
+        <v>0.4568462942341743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:103">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24">
+        <v>-333.3520202636719</v>
+      </c>
+      <c r="E24">
+        <v>150.0585174560547</v>
+      </c>
+      <c r="F24">
+        <v>-1.566367149353027</v>
+      </c>
+      <c r="G24">
+        <v>28.4232292175293</v>
+      </c>
+      <c r="H24">
+        <v>3.97587776184082</v>
+      </c>
+      <c r="I24">
+        <v>12.37160396575928</v>
+      </c>
+      <c r="J24">
+        <v>11.72964477539062</v>
+      </c>
+      <c r="K24">
+        <v>6.182967185974121</v>
+      </c>
+      <c r="L24">
+        <v>-0.002686484949663281</v>
+      </c>
+      <c r="M24">
+        <v>10.06533813476562</v>
+      </c>
+      <c r="N24">
+        <v>-0.5101023316383362</v>
+      </c>
+      <c r="O24">
+        <v>7.48171329498291</v>
+      </c>
+      <c r="P24">
+        <v>-1.072097539901733</v>
+      </c>
+      <c r="Q24">
+        <v>2.205161094665527</v>
+      </c>
+      <c r="R24">
+        <v>1.556021094322205</v>
+      </c>
+      <c r="S24">
+        <v>2.150545597076416</v>
+      </c>
+      <c r="T24">
+        <v>-0.2075031250715256</v>
+      </c>
+      <c r="U24">
+        <v>3.194015502929688</v>
+      </c>
+      <c r="V24">
+        <v>-2.803738355636597</v>
+      </c>
+      <c r="W24">
+        <v>5.0425705909729</v>
+      </c>
+      <c r="X24">
+        <v>-338.5229644775391</v>
+      </c>
+      <c r="Y24">
+        <v>142.4982299804688</v>
+      </c>
+      <c r="Z24">
+        <v>-5.761695146560669</v>
+      </c>
+      <c r="AA24">
+        <v>24.08243370056152</v>
+      </c>
+      <c r="AB24">
+        <v>0.6940364837646484</v>
+      </c>
+      <c r="AC24">
+        <v>8.442532539367676</v>
+      </c>
+      <c r="AD24">
+        <v>7.020818948745728</v>
+      </c>
+      <c r="AE24">
+        <v>2.399369359016418</v>
+      </c>
+      <c r="AF24">
+        <v>-3.322943210601807</v>
+      </c>
+      <c r="AG24">
+        <v>7.23925256729126</v>
+      </c>
+      <c r="AH24">
+        <v>-3.846792936325073</v>
+      </c>
+      <c r="AI24">
+        <v>4.65116548538208</v>
+      </c>
+      <c r="AJ24">
+        <v>-3.584946632385254</v>
+      </c>
+      <c r="AK24">
+        <v>-1.039124310016632</v>
+      </c>
+      <c r="AL24">
+        <v>-1.217404305934906</v>
+      </c>
+      <c r="AM24">
+        <v>-0.2816347181797028</v>
+      </c>
+      <c r="AN24">
+        <v>-2.786579608917236</v>
+      </c>
+      <c r="AO24">
+        <v>0.894625723361969</v>
+      </c>
+      <c r="AP24">
+        <v>-4.909859418869019</v>
+      </c>
+      <c r="AQ24">
+        <v>2.082292318344116</v>
+      </c>
+      <c r="AR24">
+        <v>-326.9399261474609</v>
+      </c>
+      <c r="AS24">
+        <v>156.22412109375</v>
+      </c>
+      <c r="AT24">
+        <v>2.788549423217773</v>
+      </c>
+      <c r="AU24">
+        <v>33.28594207763672</v>
+      </c>
+      <c r="AV24">
+        <v>7.227396011352539</v>
+      </c>
+      <c r="AW24">
+        <v>17.50757122039795</v>
+      </c>
+      <c r="AX24">
+        <v>16.33634567260742</v>
+      </c>
+      <c r="AY24">
+        <v>9.866284370422363</v>
+      </c>
+      <c r="AZ24">
+        <v>2.947518110275269</v>
+      </c>
+      <c r="BA24">
+        <v>12.7670750617981</v>
+      </c>
+      <c r="BB24">
+        <v>2.721643686294556</v>
+      </c>
+      <c r="BC24">
+        <v>10.5307445526123</v>
+      </c>
+      <c r="BD24">
+        <v>1.804768800735474</v>
+      </c>
+      <c r="BE24">
+        <v>5.179487705230713</v>
+      </c>
+      <c r="BF24">
+        <v>4.133980274200439</v>
+      </c>
+      <c r="BG24">
+        <v>4.795733690261841</v>
+      </c>
+      <c r="BH24">
+        <v>2.330124974250793</v>
+      </c>
+      <c r="BI24">
+        <v>5.430846929550171</v>
+      </c>
+      <c r="BJ24">
+        <v>-0.3265986442565918</v>
+      </c>
+      <c r="BK24">
+        <v>7.849045276641846</v>
+      </c>
+      <c r="BL24">
+        <v>1.182337088075332</v>
+      </c>
+      <c r="BM24">
+        <v>-0.9144321949822389</v>
+      </c>
+      <c r="BN24">
+        <v>-0.3268233848400999</v>
+      </c>
+      <c r="BO24">
+        <v>-0.4023368615557019</v>
+      </c>
+      <c r="BP24">
+        <v>-0.4097178630274341</v>
+      </c>
+      <c r="BQ24">
+        <v>-0.5741730153697899</v>
+      </c>
+      <c r="BR24">
+        <v>-0.5739029370550841</v>
+      </c>
+      <c r="BS24">
+        <v>-0.04272459970468256</v>
+      </c>
+      <c r="BT24">
+        <v>0.5026400718954478</v>
+      </c>
+      <c r="BU24">
+        <v>0.290795655818016</v>
+      </c>
+      <c r="BV24">
+        <v>-0.2243587505812017</v>
+      </c>
+      <c r="BW24">
+        <v>0.2212474200916348</v>
+      </c>
+      <c r="BX24">
+        <v>0.1225001961271746</v>
+      </c>
+      <c r="BY24">
+        <v>0.1441005943130818</v>
+      </c>
+      <c r="BZ24">
+        <v>-0.08525968005318196</v>
+      </c>
+      <c r="CA24">
+        <v>0.2652809474457514</v>
+      </c>
+      <c r="CB24">
+        <v>0.1616423702554242</v>
+      </c>
+      <c r="CC24">
+        <v>0.5133064788970763</v>
+      </c>
+      <c r="CD24">
+        <v>0.6817580265813787</v>
+      </c>
+      <c r="CE24">
+        <v>0.05384834237490832</v>
+      </c>
+      <c r="CF24">
+        <v>-0.1980157797281659</v>
+      </c>
+      <c r="CG24">
+        <v>-0.5652887944578379</v>
+      </c>
+      <c r="CH24">
+        <v>0.2088440871927031</v>
+      </c>
+      <c r="CI24">
+        <v>-0.05239996321678687</v>
+      </c>
+      <c r="CJ24">
+        <v>-0.02443043744044072</v>
+      </c>
+      <c r="CK24">
+        <v>-0.07585585375781852</v>
+      </c>
+      <c r="CL24">
+        <v>0.04037168525095608</v>
+      </c>
+      <c r="CM24">
+        <v>-0.3174084204000713</v>
+      </c>
+      <c r="CN24">
+        <v>0.2166055198618273</v>
+      </c>
+      <c r="CO24">
+        <v>0.02658945771129726</v>
+      </c>
+      <c r="CP24">
+        <v>-0.09884797328371871</v>
+      </c>
+      <c r="CQ24">
+        <v>-0.369055393195393</v>
+      </c>
+      <c r="CR24">
+        <v>0.0318191621655016</v>
+      </c>
+      <c r="CS24">
+        <v>0.02947768946283999</v>
+      </c>
+      <c r="CT24">
+        <v>0.01240566260193585</v>
+      </c>
+      <c r="CU24">
+        <v>-0.2946351688480695</v>
+      </c>
+      <c r="CV24">
+        <v>0.08500875554317343</v>
+      </c>
+      <c r="CW24">
+        <v>-0.01088980517489324</v>
+      </c>
+      <c r="CX24">
+        <v>-0.6183499353959789</v>
+      </c>
+      <c r="CY24">
+        <v>0.3190794098361665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:103">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
+        <v>-334.5893859863281</v>
+      </c>
+      <c r="E25">
+        <v>153.7559051513672</v>
+      </c>
+      <c r="F25">
+        <v>1.539510011672974</v>
+      </c>
+      <c r="G25">
+        <v>25.45926094055176</v>
+      </c>
+      <c r="H25">
+        <v>4.59196138381958</v>
+      </c>
+      <c r="I25">
+        <v>12.59123229980469</v>
+      </c>
+      <c r="J25">
+        <v>8.361038208007812</v>
+      </c>
+      <c r="K25">
+        <v>6.063069343566895</v>
+      </c>
+      <c r="L25">
+        <v>1.826478719711304</v>
+      </c>
+      <c r="M25">
+        <v>9.693241119384766</v>
+      </c>
+      <c r="N25">
+        <v>-0.742953360080719</v>
+      </c>
+      <c r="O25">
+        <v>7.502015590667725</v>
+      </c>
+      <c r="P25">
+        <v>-1.465463757514954</v>
+      </c>
+      <c r="Q25">
+        <v>1.807420372962952</v>
+      </c>
+      <c r="R25">
+        <v>2.078194379806519</v>
+      </c>
+      <c r="S25">
+        <v>2.562079429626465</v>
+      </c>
+      <c r="T25">
+        <v>-0.1209244355559349</v>
+      </c>
+      <c r="U25">
+        <v>3.464483261108398</v>
+      </c>
+      <c r="V25">
+        <v>-2.342410087585449</v>
+      </c>
+      <c r="W25">
+        <v>3.012324810028076</v>
+      </c>
+      <c r="X25">
+        <v>-340.0203857421875</v>
+      </c>
+      <c r="Y25">
+        <v>151.3829040527344</v>
+      </c>
+      <c r="Z25">
+        <v>-1.890432119369507</v>
+      </c>
+      <c r="AA25">
+        <v>21.69733238220215</v>
+      </c>
+      <c r="AB25">
+        <v>2.264632701873779</v>
+      </c>
+      <c r="AC25">
+        <v>9.768183708190918</v>
+      </c>
+      <c r="AD25">
+        <v>5.381875276565552</v>
+      </c>
+      <c r="AE25">
+        <v>3.648455858230591</v>
+      </c>
+      <c r="AF25">
+        <v>-0.966437429189682</v>
+      </c>
+      <c r="AG25">
+        <v>7.544289588928223</v>
+      </c>
+      <c r="AH25">
+        <v>-3.253419518470764</v>
+      </c>
+      <c r="AI25">
+        <v>5.120718002319336</v>
+      </c>
+      <c r="AJ25">
+        <v>-3.809151649475098</v>
+      </c>
+      <c r="AK25">
+        <v>-0.5713193118572235</v>
+      </c>
+      <c r="AL25">
+        <v>-0.07463946938514709</v>
+      </c>
+      <c r="AM25">
+        <v>0.4640716463327408</v>
+      </c>
+      <c r="AN25">
+        <v>-2.794660091400146</v>
+      </c>
+      <c r="AO25">
+        <v>1.422938466072083</v>
+      </c>
+      <c r="AP25">
+        <v>-4.714239120483398</v>
+      </c>
+      <c r="AQ25">
+        <v>0.8219272494316101</v>
+      </c>
+      <c r="AR25">
+        <v>-329.9378662109375</v>
+      </c>
+      <c r="AS25">
+        <v>158.0888290405273</v>
+      </c>
+      <c r="AT25">
+        <v>5.343084812164307</v>
+      </c>
+      <c r="AU25">
+        <v>28.1219367980957</v>
+      </c>
+      <c r="AV25">
+        <v>7.78376293182373</v>
+      </c>
+      <c r="AW25">
+        <v>15.07533550262451</v>
+      </c>
+      <c r="AX25">
+        <v>10.81812381744385</v>
+      </c>
+      <c r="AY25">
+        <v>9.135709285736084</v>
+      </c>
+      <c r="AZ25">
+        <v>3.628601312637329</v>
+      </c>
+      <c r="BA25">
+        <v>12.14878177642822</v>
+      </c>
+      <c r="BB25">
+        <v>1.933765530586243</v>
+      </c>
+      <c r="BC25">
+        <v>9.689980983734131</v>
+      </c>
+      <c r="BD25">
+        <v>1.340663313865662</v>
+      </c>
+      <c r="BE25">
+        <v>4.085546731948853</v>
+      </c>
+      <c r="BF25">
+        <v>4.276261329650879</v>
+      </c>
+      <c r="BG25">
+        <v>4.726494312286377</v>
+      </c>
+      <c r="BH25">
+        <v>2.24673867225647</v>
+      </c>
+      <c r="BI25">
+        <v>5.572203397750854</v>
+      </c>
+      <c r="BJ25">
+        <v>-0.1841478645801544</v>
+      </c>
+      <c r="BK25">
+        <v>5.300721168518066</v>
+      </c>
+      <c r="BL25">
+        <v>3.221191495717373</v>
+      </c>
+      <c r="BM25">
+        <v>2.63876951576683</v>
+      </c>
+      <c r="BN25">
+        <v>0.436307155378922</v>
+      </c>
+      <c r="BO25">
+        <v>1.441119860150786</v>
+      </c>
+      <c r="BP25">
+        <v>2.645103258135119</v>
+      </c>
+      <c r="BQ25">
+        <v>1.959912026532115</v>
+      </c>
+      <c r="BR25">
+        <v>0.2660135834708699</v>
+      </c>
+      <c r="BS25">
+        <v>0.7449174017812923</v>
+      </c>
+      <c r="BT25">
+        <v>3.804053315973598</v>
+      </c>
+      <c r="BU25">
+        <v>1.362839744220313</v>
+      </c>
+      <c r="BV25">
+        <v>1.34128430889885</v>
+      </c>
+      <c r="BW25">
+        <v>1.728229818959088</v>
+      </c>
+      <c r="BX25">
+        <v>0.3037122135113304</v>
+      </c>
+      <c r="BY25">
+        <v>1.298728223780099</v>
+      </c>
+      <c r="BZ25">
+        <v>1.849746034976943</v>
+      </c>
+      <c r="CA25">
+        <v>0.1793287663019258</v>
+      </c>
+      <c r="CB25">
+        <v>1.125915191295076</v>
+      </c>
+      <c r="CC25">
+        <v>1.093972434416095</v>
+      </c>
+      <c r="CD25">
+        <v>0.1045880684309237</v>
+      </c>
+      <c r="CE25">
+        <v>0.3139260575591658</v>
+      </c>
+      <c r="CF25">
+        <v>-0.1320652149579321</v>
+      </c>
+      <c r="CG25">
+        <v>-1.500000309585095</v>
+      </c>
+      <c r="CH25">
+        <v>0.02057615393468228</v>
+      </c>
+      <c r="CI25">
+        <v>1.076494770623656</v>
+      </c>
+      <c r="CJ25">
+        <v>-1.145384430776177</v>
+      </c>
+      <c r="CK25">
+        <v>0.2793091978686223</v>
+      </c>
+      <c r="CL25">
+        <v>0.4179183489772613</v>
+      </c>
+      <c r="CM25">
+        <v>-0.7147287656529232</v>
+      </c>
+      <c r="CN25">
+        <v>1.348461141540536</v>
+      </c>
+      <c r="CO25">
+        <v>-0.288690159681214</v>
+      </c>
+      <c r="CP25">
+        <v>-0.2512815324143302</v>
+      </c>
+      <c r="CQ25">
+        <v>0.3264944155592899</v>
+      </c>
+      <c r="CR25">
+        <v>-0.2154994699010127</v>
+      </c>
+      <c r="CS25">
+        <v>0.332991712180684</v>
+      </c>
+      <c r="CT25">
+        <v>-0.09601629878526449</v>
+      </c>
+      <c r="CU25">
+        <v>-0.1738072615025714</v>
+      </c>
+      <c r="CV25">
+        <v>0.5213667113553455</v>
+      </c>
+      <c r="CW25">
+        <v>0.01467348940801462</v>
+      </c>
+      <c r="CX25">
+        <v>0.1180598599810471</v>
+      </c>
+      <c r="CY25">
+        <v>-0.127837020656093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:103">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <v>-326.9493103027344</v>
+      </c>
+      <c r="E26">
+        <v>150.4938659667969</v>
+      </c>
+      <c r="F26">
+        <v>-2.826595544815063</v>
+      </c>
+      <c r="G26">
+        <v>31.74502944946289</v>
+      </c>
+      <c r="H26">
+        <v>3.481074810028076</v>
+      </c>
+      <c r="I26">
+        <v>9.795050621032715</v>
+      </c>
+      <c r="J26">
+        <v>12.08847618103027</v>
+      </c>
+      <c r="K26">
+        <v>4.482651233673096</v>
+      </c>
+      <c r="L26">
+        <v>0.5844602584838867</v>
+      </c>
+      <c r="M26">
+        <v>10.14795017242432</v>
+      </c>
+      <c r="N26">
+        <v>-0.710239052772522</v>
+      </c>
+      <c r="O26">
+        <v>7.74537992477417</v>
+      </c>
+      <c r="P26">
+        <v>-0.9701424241065979</v>
+      </c>
+      <c r="Q26">
+        <v>2.438456058502197</v>
+      </c>
+      <c r="R26">
+        <v>1.992362499237061</v>
+      </c>
+      <c r="S26">
+        <v>2.540565252304077</v>
+      </c>
+      <c r="T26">
+        <v>-0.5612754225730896</v>
+      </c>
+      <c r="U26">
+        <v>2.983864068984985</v>
+      </c>
+      <c r="V26">
+        <v>-2.111814975738525</v>
+      </c>
+      <c r="W26">
+        <v>3.721447944641113</v>
+      </c>
+      <c r="X26">
+        <v>-333.3959197998047</v>
+      </c>
+      <c r="Y26">
+        <v>146.4811325073242</v>
+      </c>
+      <c r="Z26">
+        <v>-6.115756511688232</v>
+      </c>
+      <c r="AA26">
+        <v>26.15250396728516</v>
+      </c>
+      <c r="AB26">
+        <v>-0.6031332015991211</v>
+      </c>
+      <c r="AC26">
+        <v>6.356661796569824</v>
+      </c>
+      <c r="AD26">
+        <v>7.888726711273193</v>
+      </c>
+      <c r="AE26">
+        <v>0.525903046131134</v>
+      </c>
+      <c r="AF26">
+        <v>-2.963435769081116</v>
+      </c>
+      <c r="AG26">
+        <v>6.93576455116272</v>
+      </c>
+      <c r="AH26">
+        <v>-4.292011260986328</v>
+      </c>
+      <c r="AI26">
+        <v>3.74422812461853</v>
+      </c>
+      <c r="AJ26">
+        <v>-3.879779458045959</v>
+      </c>
+      <c r="AK26">
+        <v>-1.029712975025177</v>
+      </c>
+      <c r="AL26">
+        <v>-0.8348552882671356</v>
+      </c>
+      <c r="AM26">
+        <v>0.02119931578636169</v>
+      </c>
+      <c r="AN26">
+        <v>-3.47270131111145</v>
+      </c>
+      <c r="AO26">
+        <v>0.08631710708141327</v>
+      </c>
+      <c r="AP26">
+        <v>-5.256018877029419</v>
+      </c>
+      <c r="AQ26">
+        <v>0.9423620998859406</v>
+      </c>
+      <c r="AR26">
+        <v>-322.2022094726562</v>
+      </c>
+      <c r="AS26">
+        <v>155.7126770019531</v>
+      </c>
+      <c r="AT26">
+        <v>1.534164071083069</v>
+      </c>
+      <c r="AU26">
+        <v>35.93627738952637</v>
+      </c>
+      <c r="AV26">
+        <v>8.405688285827637</v>
+      </c>
+      <c r="AW26">
+        <v>13.11986017227173</v>
+      </c>
+      <c r="AX26">
+        <v>16.02124881744385</v>
+      </c>
+      <c r="AY26">
+        <v>8.805197238922119</v>
+      </c>
+      <c r="AZ26">
+        <v>3.988219499588013</v>
+      </c>
+      <c r="BA26">
+        <v>13.35492467880249</v>
+      </c>
+      <c r="BB26">
+        <v>3.307234406471252</v>
+      </c>
+      <c r="BC26">
+        <v>11.43517303466797</v>
+      </c>
+      <c r="BD26">
+        <v>2.249613761901855</v>
+      </c>
+      <c r="BE26">
+        <v>5.084592819213867</v>
+      </c>
+      <c r="BF26">
+        <v>5.642561435699463</v>
+      </c>
+      <c r="BG26">
+        <v>5.386841535568237</v>
+      </c>
+      <c r="BH26">
+        <v>2.561819076538086</v>
+      </c>
+      <c r="BI26">
+        <v>5.831252336502075</v>
+      </c>
+      <c r="BJ26">
+        <v>0.6806180477142334</v>
+      </c>
+      <c r="BK26">
+        <v>6.444094657897949</v>
+      </c>
+      <c r="BL26">
+        <v>0.2327897837486486</v>
+      </c>
+      <c r="BM26">
+        <v>-0.229255795030356</v>
+      </c>
+      <c r="BN26">
+        <v>0.5313041679023063</v>
+      </c>
+      <c r="BO26">
+        <v>0.9362460185909685</v>
+      </c>
+      <c r="BP26">
+        <v>0.00181034135808833</v>
+      </c>
+      <c r="BQ26">
+        <v>1.294620847739417</v>
+      </c>
+      <c r="BR26">
+        <v>-0.1713547522811192</v>
+      </c>
+      <c r="BS26">
+        <v>-0.2693719172636087</v>
+      </c>
+      <c r="BT26">
+        <v>0.8188648856428462</v>
+      </c>
+      <c r="BU26">
+        <v>1.247546885183417</v>
+      </c>
+      <c r="BV26">
+        <v>0.2688096810932175</v>
+      </c>
+      <c r="BW26">
+        <v>0.1389979220885742</v>
+      </c>
+      <c r="BX26">
+        <v>0.2904082046867318</v>
+      </c>
+      <c r="BY26">
+        <v>1.101835165070494</v>
+      </c>
+      <c r="BZ26">
+        <v>0.2413931523219688</v>
+      </c>
+      <c r="CA26">
+        <v>0.9090136915211002</v>
+      </c>
+      <c r="CB26">
+        <v>0.1212894699698617</v>
+      </c>
+      <c r="CC26">
+        <v>0.1057706305422195</v>
+      </c>
+      <c r="CD26">
+        <v>-0.08143459001549935</v>
+      </c>
+      <c r="CE26">
+        <v>0.8307095601759951</v>
+      </c>
+      <c r="CF26">
+        <v>0.4917450264644257</v>
+      </c>
+      <c r="CG26">
+        <v>-0.5708605097593646</v>
+      </c>
+      <c r="CH26">
+        <v>-0.7572272471332115</v>
+      </c>
+      <c r="CI26">
+        <v>0.7939945985282111</v>
+      </c>
+      <c r="CJ26">
+        <v>-0.1778250034323629</v>
+      </c>
+      <c r="CK26">
+        <v>-0.1486309818751821</v>
+      </c>
+      <c r="CL26">
+        <v>0.4125418628361442</v>
+      </c>
+      <c r="CM26">
+        <v>-0.374444872531927</v>
+      </c>
+      <c r="CN26">
+        <v>0.120982784789806</v>
+      </c>
+      <c r="CO26">
+        <v>0.06508816614772996</v>
+      </c>
+      <c r="CP26">
+        <v>0.07016777895954938</v>
+      </c>
+      <c r="CQ26">
+        <v>0.07762683520901334</v>
+      </c>
+      <c r="CR26">
+        <v>-0.2146262101101817</v>
+      </c>
+      <c r="CS26">
+        <v>0.6301066052320027</v>
+      </c>
+      <c r="CT26">
+        <v>-0.377492764248862</v>
+      </c>
+      <c r="CU26">
+        <v>-0.295302325840835</v>
+      </c>
+      <c r="CV26">
+        <v>-0.04377669445617384</v>
+      </c>
+      <c r="CW26">
+        <v>-0.2597285353397364</v>
+      </c>
+      <c r="CX26">
+        <v>0.1385561499280355</v>
+      </c>
+      <c r="CY26">
+        <v>0.2605715845224539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:103">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27">
+        <v>-318.6427612304688</v>
+      </c>
+      <c r="E27">
+        <v>145.3339691162109</v>
+      </c>
+      <c r="F27">
+        <v>3.691230297088623</v>
+      </c>
+      <c r="G27">
+        <v>27.67169189453125</v>
+      </c>
+      <c r="H27">
+        <v>0.6482446789741516</v>
+      </c>
+      <c r="I27">
+        <v>13.20045852661133</v>
+      </c>
+      <c r="J27">
+        <v>9.534980773925781</v>
+      </c>
+      <c r="K27">
+        <v>4.103837966918945</v>
+      </c>
+      <c r="L27">
+        <v>2.18210768699646</v>
+      </c>
+      <c r="M27">
+        <v>10.16253566741943</v>
+      </c>
+      <c r="N27">
+        <v>-1.727809548377991</v>
+      </c>
+      <c r="O27">
+        <v>8.856235504150391</v>
+      </c>
+      <c r="P27">
+        <v>-1.701051354408264</v>
+      </c>
+      <c r="Q27">
+        <v>1.587885856628418</v>
+      </c>
+      <c r="R27">
+        <v>2.14204478263855</v>
+      </c>
+      <c r="S27">
+        <v>2.321446180343628</v>
+      </c>
+      <c r="T27">
+        <v>-0.9085140824317932</v>
+      </c>
+      <c r="U27">
+        <v>3.744662046432495</v>
+      </c>
+      <c r="V27">
+        <v>-1.916767358779907</v>
+      </c>
+      <c r="W27">
+        <v>3.352981090545654</v>
+      </c>
+      <c r="X27">
+        <v>-326.8201904296875</v>
+      </c>
+      <c r="Y27">
+        <v>140.3122100830078</v>
+      </c>
+      <c r="Z27">
+        <v>-1.599007248878479</v>
+      </c>
+      <c r="AA27">
+        <v>23.94815635681152</v>
+      </c>
+      <c r="AB27">
+        <v>-2.974486947059631</v>
+      </c>
+      <c r="AC27">
+        <v>9.601169109344482</v>
+      </c>
+      <c r="AD27">
+        <v>5.615495681762695</v>
+      </c>
+      <c r="AE27">
+        <v>-0.660712331533432</v>
+      </c>
+      <c r="AF27">
+        <v>-1.57697206735611</v>
+      </c>
+      <c r="AG27">
+        <v>6.642813205718994</v>
+      </c>
+      <c r="AH27">
+        <v>-5.501945495605469</v>
+      </c>
+      <c r="AI27">
+        <v>6.077080726623535</v>
+      </c>
+      <c r="AJ27">
+        <v>-5.165331602096558</v>
+      </c>
+      <c r="AK27">
+        <v>-1.485326945781708</v>
+      </c>
+      <c r="AL27">
+        <v>-0.3417305201292038</v>
+      </c>
+      <c r="AM27">
+        <v>-0.7849712371826172</v>
+      </c>
+      <c r="AN27">
+        <v>-3.89603853225708</v>
+      </c>
+      <c r="AO27">
+        <v>1.518073379993439</v>
+      </c>
+      <c r="AP27">
+        <v>-4.443401098251343</v>
+      </c>
+      <c r="AQ27">
+        <v>0.7594872415065765</v>
+      </c>
+      <c r="AR27">
+        <v>-312.6064910888672</v>
+      </c>
+      <c r="AS27">
+        <v>153.4120559692383</v>
+      </c>
+      <c r="AT27">
+        <v>6.973412036895752</v>
+      </c>
+      <c r="AU27">
+        <v>32.67695617675781</v>
+      </c>
+      <c r="AV27">
+        <v>4.494142055511475</v>
+      </c>
+      <c r="AW27">
+        <v>17.60540008544922</v>
+      </c>
+      <c r="AX27">
+        <v>13.50831651687622</v>
+      </c>
+      <c r="AY27">
+        <v>9.62562084197998</v>
+      </c>
+      <c r="AZ27">
+        <v>6.141392707824707</v>
+      </c>
+      <c r="BA27">
+        <v>13.23778009414673</v>
+      </c>
+      <c r="BB27">
+        <v>1.777733266353607</v>
+      </c>
+      <c r="BC27">
+        <v>11.7217264175415</v>
+      </c>
+      <c r="BD27">
+        <v>2.103378772735596</v>
+      </c>
+      <c r="BE27">
+        <v>4.463891506195068</v>
+      </c>
+      <c r="BF27">
+        <v>4.642813444137573</v>
+      </c>
+      <c r="BG27">
+        <v>5.099400281906128</v>
+      </c>
+      <c r="BH27">
+        <v>1.997768640518188</v>
+      </c>
+      <c r="BI27">
+        <v>6.181070327758789</v>
+      </c>
+      <c r="BJ27">
+        <v>0.346423864364624</v>
+      </c>
+      <c r="BK27">
+        <v>6.220096588134766</v>
+      </c>
+      <c r="BL27">
+        <v>1.233374639598144</v>
+      </c>
+      <c r="BM27">
+        <v>2.341677378621179</v>
+      </c>
+      <c r="BN27">
+        <v>2.858478932353217</v>
+      </c>
+      <c r="BO27">
+        <v>1.11977098973311</v>
+      </c>
+      <c r="BP27">
+        <v>-0.05940981466693218</v>
+      </c>
+      <c r="BQ27">
+        <v>0.09858079156873956</v>
+      </c>
+      <c r="BR27">
+        <v>-0.04439896908772978</v>
+      </c>
+      <c r="BS27">
+        <v>-0.7570515329762402</v>
+      </c>
+      <c r="BT27">
+        <v>0.5170520910246661</v>
+      </c>
+      <c r="BU27">
+        <v>0.8550465471647284</v>
+      </c>
+      <c r="BV27">
+        <v>-0.3705868294689196</v>
+      </c>
+      <c r="BW27">
+        <v>0.5562307602016938</v>
+      </c>
+      <c r="BX27">
+        <v>0.05045831894612984</v>
+      </c>
+      <c r="BY27">
+        <v>0.2403608283786234</v>
+      </c>
+      <c r="BZ27">
+        <v>0.7747575057678788</v>
+      </c>
+      <c r="CA27">
+        <v>0.3423245229554617</v>
+      </c>
+      <c r="CB27">
+        <v>-0.1354237795414357</v>
+      </c>
+      <c r="CC27">
+        <v>0.743604449623211</v>
+      </c>
+      <c r="CD27">
+        <v>0.3542498391527822</v>
+      </c>
+      <c r="CE27">
+        <v>0.4203430787571594</v>
+      </c>
+      <c r="CF27">
+        <v>0.6294247383239243</v>
+      </c>
+      <c r="CG27">
+        <v>-1.524282212238117</v>
+      </c>
+      <c r="CH27">
+        <v>1.191192043490875</v>
+      </c>
+      <c r="CI27">
+        <v>-0.4161553080275384</v>
+      </c>
+      <c r="CJ27">
+        <v>-0.3661450796628684</v>
+      </c>
+      <c r="CK27">
+        <v>-0.3738796782030399</v>
+      </c>
+      <c r="CL27">
+        <v>0.2404523412450025</v>
+      </c>
+      <c r="CM27">
+        <v>-0.0903500226126394</v>
+      </c>
+      <c r="CN27">
+        <v>0.01717139998780816</v>
+      </c>
+      <c r="CO27">
+        <v>-0.1652780045259367</v>
+      </c>
+      <c r="CP27">
+        <v>0.07945368350279851</v>
+      </c>
+      <c r="CQ27">
+        <v>0.07243551470916565</v>
+      </c>
+      <c r="CR27">
+        <v>-0.3164111697587118</v>
+      </c>
+      <c r="CS27">
+        <v>0.1238135273708925</v>
+      </c>
+      <c r="CT27">
+        <v>0.1042942621825537</v>
+      </c>
+      <c r="CU27">
+        <v>-0.185334823792182</v>
+      </c>
+      <c r="CV27">
+        <v>0.04621457728719987</v>
+      </c>
+      <c r="CW27">
+        <v>-0.07810274055499224</v>
+      </c>
+      <c r="CX27">
+        <v>0.08475937444852043</v>
+      </c>
+      <c r="CY27">
+        <v>-0.1666212119001892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:103">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28">
+        <v>-342.65478515625</v>
+      </c>
+      <c r="E28">
+        <v>155.5027923583984</v>
+      </c>
+      <c r="F28">
+        <v>-1.908915400505066</v>
+      </c>
+      <c r="G28">
+        <v>25.79485321044922</v>
+      </c>
+      <c r="H28">
+        <v>3.322662115097046</v>
+      </c>
+      <c r="I28">
+        <v>10.83181190490723</v>
+      </c>
+      <c r="J28">
+        <v>12.04882907867432</v>
+      </c>
+      <c r="K28">
+        <v>3.836548089981079</v>
+      </c>
+      <c r="L28">
+        <v>1.687978982925415</v>
+      </c>
+      <c r="M28">
+        <v>9.220535278320312</v>
+      </c>
+      <c r="N28">
+        <v>-0.4654328525066376</v>
+      </c>
+      <c r="O28">
+        <v>7.771739482879639</v>
+      </c>
+      <c r="P28">
+        <v>-0.863112211227417</v>
+      </c>
+      <c r="Q28">
+        <v>1.625514388084412</v>
+      </c>
+      <c r="R28">
+        <v>2.630511045455933</v>
+      </c>
+      <c r="S28">
+        <v>1.986031532287598</v>
+      </c>
+      <c r="T28">
+        <v>-0.6426437497138977</v>
+      </c>
+      <c r="U28">
+        <v>3.575456619262695</v>
+      </c>
+      <c r="V28">
+        <v>-0.5347254872322083</v>
+      </c>
+      <c r="W28">
+        <v>2.982485771179199</v>
+      </c>
+      <c r="X28">
+        <v>-345.5367279052734</v>
+      </c>
+      <c r="Y28">
+        <v>152.4731979370117</v>
+      </c>
+      <c r="Z28">
+        <v>-4.378084659576416</v>
+      </c>
+      <c r="AA28">
+        <v>20.80459594726562</v>
+      </c>
+      <c r="AB28">
+        <v>0.6117264926433563</v>
+      </c>
+      <c r="AC28">
+        <v>8.221806049346924</v>
+      </c>
+      <c r="AD28">
+        <v>9.101046085357666</v>
+      </c>
+      <c r="AE28">
+        <v>1.271082878112793</v>
+      </c>
+      <c r="AF28">
+        <v>-1.640408992767334</v>
+      </c>
+      <c r="AG28">
+        <v>6.1183762550354</v>
+      </c>
+      <c r="AH28">
+        <v>-3.428494215011597</v>
+      </c>
+      <c r="AI28">
+        <v>5.422678470611572</v>
+      </c>
+      <c r="AJ28">
+        <v>-3.563174366950989</v>
+      </c>
+      <c r="AK28">
+        <v>-1.133472323417664</v>
+      </c>
+      <c r="AL28">
+        <v>0.03317868709564209</v>
+      </c>
+      <c r="AM28">
+        <v>-0.6087947189807892</v>
+      </c>
+      <c r="AN28">
+        <v>-3.209172487258911</v>
+      </c>
+      <c r="AO28">
+        <v>0.9270428419113159</v>
+      </c>
+      <c r="AP28">
+        <v>-3.082430005073547</v>
+      </c>
+      <c r="AQ28">
+        <v>0.110788993537426</v>
+      </c>
+      <c r="AR28">
+        <v>-339.68896484375</v>
+      </c>
+      <c r="AS28">
+        <v>158.8127212524414</v>
+      </c>
+      <c r="AT28">
+        <v>0.980565071105957</v>
+      </c>
+      <c r="AU28">
+        <v>29.5632495880127</v>
+      </c>
+      <c r="AV28">
+        <v>6.789905548095703</v>
+      </c>
+      <c r="AW28">
+        <v>13.97443151473999</v>
+      </c>
+      <c r="AX28">
+        <v>14.73222637176514</v>
+      </c>
+      <c r="AY28">
+        <v>6.666396141052246</v>
+      </c>
+      <c r="AZ28">
+        <v>4.951972961425781</v>
+      </c>
+      <c r="BA28">
+        <v>12.45450973510742</v>
+      </c>
+      <c r="BB28">
+        <v>3.088550806045532</v>
+      </c>
+      <c r="BC28">
+        <v>10.3151798248291</v>
+      </c>
+      <c r="BD28">
+        <v>2.500426888465881</v>
+      </c>
+      <c r="BE28">
+        <v>4.621631145477295</v>
+      </c>
+      <c r="BF28">
+        <v>5.216980457305908</v>
+      </c>
+      <c r="BG28">
+        <v>4.814053535461426</v>
+      </c>
+      <c r="BH28">
+        <v>2.288202404975891</v>
+      </c>
+      <c r="BI28">
+        <v>6.247279167175293</v>
+      </c>
+      <c r="BJ28">
+        <v>1.854337215423584</v>
+      </c>
+      <c r="BK28">
+        <v>5.906898021697998</v>
+      </c>
+      <c r="BL28">
+        <v>10.95006750296936</v>
+      </c>
+      <c r="BM28">
+        <v>0.7502685046868889</v>
+      </c>
+      <c r="BN28">
+        <v>2.184168428104169</v>
+      </c>
+      <c r="BO28">
+        <v>1.231162214209419</v>
+      </c>
+      <c r="BP28">
+        <v>0.6903568414545651</v>
+      </c>
+      <c r="BQ28">
+        <v>1.310812574807905</v>
+      </c>
+      <c r="BR28">
+        <v>2.720333695739201</v>
+      </c>
+      <c r="BS28">
+        <v>0.3687075164031564</v>
+      </c>
+      <c r="BT28">
+        <v>1.422461367720599</v>
+      </c>
+      <c r="BU28">
+        <v>1.011548704116223</v>
+      </c>
+      <c r="BV28">
+        <v>-0.1707091792795663</v>
+      </c>
+      <c r="BW28">
+        <v>0.2391763991564666</v>
+      </c>
+      <c r="BX28">
+        <v>0.6656912360480787</v>
+      </c>
+      <c r="BY28">
+        <v>0.7849240189821396</v>
+      </c>
+      <c r="BZ28">
+        <v>0.6751771824152533</v>
+      </c>
+      <c r="CA28">
+        <v>0.2496704265704563</v>
+      </c>
+      <c r="CB28">
+        <v>-0.0558257176132404</v>
+      </c>
+      <c r="CC28">
+        <v>0.6074592815453421</v>
+      </c>
+      <c r="CD28">
+        <v>0.9496575695864542</v>
+      </c>
+      <c r="CE28">
+        <v>0.1668190297090706</v>
+      </c>
+      <c r="CF28">
+        <v>-0.4997656696044142</v>
+      </c>
+      <c r="CG28">
+        <v>-0.3760484731175823</v>
+      </c>
+      <c r="CH28">
+        <v>-0.5949465393896439</v>
+      </c>
+      <c r="CI28">
+        <v>0.8856870859780469</v>
+      </c>
+      <c r="CJ28">
+        <v>-0.8153711298923562</v>
+      </c>
+      <c r="CK28">
+        <v>-0.4358467076411563</v>
+      </c>
+      <c r="CL28">
+        <v>0.8204920120854816</v>
+      </c>
+      <c r="CM28">
+        <v>-0.4441555718865116</v>
+      </c>
+      <c r="CN28">
+        <v>0.2920871347192614</v>
+      </c>
+      <c r="CO28">
+        <v>-0.1504358596029928</v>
+      </c>
+      <c r="CP28">
+        <v>-0.2057617049554236</v>
+      </c>
+      <c r="CQ28">
+        <v>-0.02789745675681236</v>
+      </c>
+      <c r="CR28">
+        <v>-0.5161968676816105</v>
+      </c>
+      <c r="CS28">
+        <v>0.2308773457093851</v>
+      </c>
+      <c r="CT28">
+        <v>-0.3319978512781145</v>
+      </c>
+      <c r="CU28">
+        <v>-0.1316297611676253</v>
+      </c>
+      <c r="CV28">
+        <v>-0.1671597259743612</v>
+      </c>
+      <c r="CW28">
+        <v>-0.1326020576448388</v>
+      </c>
+      <c r="CX28">
+        <v>0.4700037387835503</v>
+      </c>
+      <c r="CY28">
+        <v>-0.08479009695361171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:103">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29">
+        <v>-362.0770874023438</v>
+      </c>
+      <c r="E29">
+        <v>156.4120941162109</v>
+      </c>
+      <c r="F29">
+        <v>-3.964718818664551</v>
+      </c>
+      <c r="G29">
+        <v>24.68896102905273</v>
+      </c>
+      <c r="H29">
+        <v>4.97926664352417</v>
+      </c>
+      <c r="I29">
+        <v>11.15615463256836</v>
+      </c>
+      <c r="J29">
+        <v>12.6418342590332</v>
+      </c>
+      <c r="K29">
+        <v>5.106802940368652</v>
+      </c>
+      <c r="L29">
+        <v>1.399753093719482</v>
+      </c>
+      <c r="M29">
+        <v>8.995635986328125</v>
+      </c>
+      <c r="N29">
+        <v>0.1402793079614639</v>
+      </c>
+      <c r="O29">
+        <v>7.763609409332275</v>
+      </c>
+      <c r="P29">
+        <v>-0.1928088217973709</v>
+      </c>
+      <c r="Q29">
+        <v>2.106782674789429</v>
+      </c>
+      <c r="R29">
+        <v>2.974770069122314</v>
+      </c>
+      <c r="S29">
+        <v>1.138424754142761</v>
+      </c>
+      <c r="T29">
+        <v>0.06089141964912415</v>
+      </c>
+      <c r="U29">
+        <v>3.563186168670654</v>
+      </c>
+      <c r="V29">
+        <v>-1.015790224075317</v>
+      </c>
+      <c r="W29">
+        <v>4.070503234863281</v>
+      </c>
+      <c r="X29">
+        <v>-366.1858367919922</v>
+      </c>
+      <c r="Y29">
+        <v>153.3387985229492</v>
+      </c>
+      <c r="Z29">
+        <v>-7.449279308319092</v>
+      </c>
+      <c r="AA29">
+        <v>20.04747486114502</v>
+      </c>
+      <c r="AB29">
+        <v>0.7143703103065491</v>
+      </c>
+      <c r="AC29">
+        <v>8.352029800415039</v>
+      </c>
+      <c r="AD29">
+        <v>8.731999397277832</v>
+      </c>
+      <c r="AE29">
+        <v>1.119726240634918</v>
+      </c>
+      <c r="AF29">
+        <v>-2.272943139076233</v>
+      </c>
+      <c r="AG29">
+        <v>5.634300708770752</v>
+      </c>
+      <c r="AH29">
+        <v>-3.790322542190552</v>
+      </c>
+      <c r="AI29">
+        <v>4.625154256820679</v>
+      </c>
+      <c r="AJ29">
+        <v>-3.050975561141968</v>
+      </c>
+      <c r="AK29">
+        <v>-1.056924939155579</v>
+      </c>
+      <c r="AL29">
+        <v>0.2947796136140823</v>
+      </c>
+      <c r="AM29">
+        <v>-2.154089570045471</v>
+      </c>
+      <c r="AN29">
+        <v>-2.828381896018982</v>
+      </c>
+      <c r="AO29">
+        <v>0.7286505699157715</v>
+      </c>
+      <c r="AP29">
+        <v>-3.564852356910706</v>
+      </c>
+      <c r="AQ29">
+        <v>1.20717316865921</v>
+      </c>
+      <c r="AR29">
+        <v>-358.8505554199219</v>
+      </c>
+      <c r="AS29">
+        <v>159.7717742919922</v>
+      </c>
+      <c r="AT29">
+        <v>-0.2514810115098953</v>
+      </c>
+      <c r="AU29">
+        <v>28.98448181152344</v>
+      </c>
+      <c r="AV29">
+        <v>9.301743984222412</v>
+      </c>
+      <c r="AW29">
+        <v>14.44697093963623</v>
+      </c>
+      <c r="AX29">
+        <v>16.14133262634277</v>
+      </c>
+      <c r="AY29">
+        <v>9.744444847106934</v>
+      </c>
+      <c r="AZ29">
+        <v>4.678858041763306</v>
+      </c>
+      <c r="BA29">
+        <v>11.74696254730225</v>
+      </c>
+      <c r="BB29">
+        <v>3.847338080406189</v>
+      </c>
+      <c r="BC29">
+        <v>10.8388090133667</v>
+      </c>
+      <c r="BD29">
+        <v>2.643728852272034</v>
+      </c>
+      <c r="BE29">
+        <v>5.260044813156128</v>
+      </c>
+      <c r="BF29">
+        <v>5.725563287734985</v>
+      </c>
+      <c r="BG29">
+        <v>3.664273262023926</v>
+      </c>
+      <c r="BH29">
+        <v>2.648711323738098</v>
+      </c>
+      <c r="BI29">
+        <v>6.221828699111938</v>
+      </c>
+      <c r="BJ29">
+        <v>1.445581197738647</v>
+      </c>
+      <c r="BK29">
+        <v>6.657010555267334</v>
+      </c>
+      <c r="BL29">
+        <v>2.885933637404273</v>
+      </c>
+      <c r="BM29">
+        <v>2.861663190658867</v>
+      </c>
+      <c r="BN29">
+        <v>0.5663471622728031</v>
+      </c>
+      <c r="BO29">
+        <v>-0.1245592188978293</v>
+      </c>
+      <c r="BP29">
+        <v>-0.2730864813543015</v>
+      </c>
+      <c r="BQ29">
+        <v>0.08682086852524717</v>
+      </c>
+      <c r="BR29">
+        <v>0.1233772969364901</v>
+      </c>
+      <c r="BS29">
+        <v>-0.5926131920071258</v>
+      </c>
+      <c r="BT29">
+        <v>-0.02574785368715604</v>
+      </c>
+      <c r="BU29">
+        <v>0.6326247073463116</v>
+      </c>
+      <c r="BV29">
+        <v>-0.3877958342823113</v>
+      </c>
+      <c r="BW29">
+        <v>0.2512068590496361</v>
+      </c>
+      <c r="BX29">
+        <v>-0.02333154940786963</v>
+      </c>
+      <c r="BY29">
+        <v>0.06746242353126108</v>
+      </c>
+      <c r="BZ29">
+        <v>0.4952059312861441</v>
+      </c>
+      <c r="CA29">
+        <v>0.1947841626794036</v>
+      </c>
+      <c r="CB29">
+        <v>0.6161156281701556</v>
+      </c>
+      <c r="CC29">
+        <v>-0.1760328219244416</v>
+      </c>
+      <c r="CD29">
+        <v>0.2631392246145778</v>
+      </c>
+      <c r="CE29">
+        <v>0.3507287482561234</v>
+      </c>
+      <c r="CF29">
+        <v>0.3494777313802168</v>
+      </c>
+      <c r="CG29">
+        <v>-0.7280921138400521</v>
+      </c>
+      <c r="CH29">
+        <v>-0.2106907209237818</v>
+      </c>
+      <c r="CI29">
+        <v>0.2580930168154769</v>
+      </c>
+      <c r="CJ29">
+        <v>-0.462152968829551</v>
+      </c>
+      <c r="CK29">
+        <v>-0.3940165151506484</v>
+      </c>
+      <c r="CL29">
+        <v>0.4415602796783377</v>
+      </c>
+      <c r="CM29">
+        <v>-0.2076701056116457</v>
+      </c>
+      <c r="CN29">
+        <v>0.09678380785407721</v>
+      </c>
+      <c r="CO29">
+        <v>0.5485742817731321</v>
+      </c>
+      <c r="CP29">
+        <v>-0.09236484331187779</v>
+      </c>
+      <c r="CQ29">
+        <v>-0.07980428078827644</v>
+      </c>
+      <c r="CR29">
+        <v>0.1741731449795389</v>
+      </c>
+      <c r="CS29">
+        <v>0.0437511413466075</v>
+      </c>
+      <c r="CT29">
+        <v>0.1975885213208146</v>
+      </c>
+      <c r="CU29">
+        <v>0.3059901363508102</v>
+      </c>
+      <c r="CV29">
+        <v>0.3636597570597159</v>
+      </c>
+      <c r="CW29">
+        <v>0.303373888235596</v>
+      </c>
+      <c r="CX29">
+        <v>0.07547963535986772</v>
+      </c>
+      <c r="CY29">
+        <v>0.407757636064381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:103">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>-379.0081481933594</v>
+      </c>
+      <c r="E30">
+        <v>148.5540771484375</v>
+      </c>
+      <c r="F30">
+        <v>2.403306245803833</v>
+      </c>
+      <c r="G30">
+        <v>25.76378440856934</v>
+      </c>
+      <c r="H30">
+        <v>5.367621421813965</v>
+      </c>
+      <c r="I30">
+        <v>12.26434898376465</v>
+      </c>
+      <c r="J30">
+        <v>9.724579811096191</v>
+      </c>
+      <c r="K30">
+        <v>6.856961250305176</v>
+      </c>
+      <c r="L30">
+        <v>1.905614495277405</v>
+      </c>
+      <c r="M30">
+        <v>9.859931945800781</v>
+      </c>
+      <c r="N30">
+        <v>1.015450000762939</v>
+      </c>
+      <c r="O30">
+        <v>6.091979503631592</v>
+      </c>
+      <c r="P30">
+        <v>0.9682384133338928</v>
+      </c>
+      <c r="Q30">
+        <v>2.831606388092041</v>
+      </c>
+      <c r="R30">
+        <v>2.046738386154175</v>
+      </c>
+      <c r="S30">
+        <v>2.476606607437134</v>
+      </c>
+      <c r="T30">
+        <v>1.246253609657288</v>
+      </c>
+      <c r="U30">
+        <v>3.705899715423584</v>
+      </c>
+      <c r="V30">
+        <v>-0.4979535639286041</v>
+      </c>
+      <c r="W30">
+        <v>4.142812252044678</v>
+      </c>
+      <c r="X30">
+        <v>-387.1980590820312</v>
+      </c>
+      <c r="Y30">
+        <v>139.1815185546875</v>
+      </c>
+      <c r="Z30">
+        <v>-2.318964719772339</v>
+      </c>
+      <c r="AA30">
+        <v>20.88379669189453</v>
+      </c>
+      <c r="AB30">
+        <v>3.006667256355286</v>
+      </c>
+      <c r="AC30">
+        <v>9.219656944274902</v>
+      </c>
+      <c r="AD30">
+        <v>5.413774013519287</v>
+      </c>
+      <c r="AE30">
+        <v>3.188766241073608</v>
+      </c>
+      <c r="AF30">
+        <v>-1.041988968849182</v>
+      </c>
+      <c r="AG30">
+        <v>6.596205234527588</v>
+      </c>
+      <c r="AH30">
+        <v>-1.913100779056549</v>
+      </c>
+      <c r="AI30">
+        <v>2.669778823852539</v>
+      </c>
+      <c r="AJ30">
+        <v>-1.944952726364136</v>
+      </c>
+      <c r="AK30">
+        <v>-0.5337555706501007</v>
+      </c>
+      <c r="AL30">
+        <v>-0.4894503951072693</v>
+      </c>
+      <c r="AM30">
+        <v>0.184950590133667</v>
+      </c>
+      <c r="AN30">
+        <v>-1.160425007343292</v>
+      </c>
+      <c r="AO30">
+        <v>1.232769846916199</v>
+      </c>
+      <c r="AP30">
+        <v>-2.924719214439392</v>
+      </c>
+      <c r="AQ30">
+        <v>1.659052908420563</v>
+      </c>
+      <c r="AR30">
+        <v>-371.9981231689453</v>
+      </c>
+      <c r="AS30">
+        <v>158.6055450439453</v>
+      </c>
+      <c r="AT30">
+        <v>6.737218379974365</v>
+      </c>
+      <c r="AU30">
+        <v>29.35468864440918</v>
+      </c>
+      <c r="AV30">
+        <v>9.006677150726318</v>
+      </c>
+      <c r="AW30">
+        <v>15.24687099456787</v>
+      </c>
+      <c r="AX30">
+        <v>13.33193206787109</v>
+      </c>
+      <c r="AY30">
+        <v>10.87171792984009</v>
+      </c>
+      <c r="AZ30">
+        <v>4.691177368164062</v>
+      </c>
+      <c r="BA30">
+        <v>12.94216156005859</v>
+      </c>
+      <c r="BB30">
+        <v>3.829096078872681</v>
+      </c>
+      <c r="BC30">
+        <v>9.195209503173828</v>
+      </c>
+      <c r="BD30">
+        <v>4.004512786865234</v>
+      </c>
+      <c r="BE30">
+        <v>5.770517587661743</v>
+      </c>
+      <c r="BF30">
+        <v>4.601099252700806</v>
+      </c>
+      <c r="BG30">
+        <v>4.590751171112061</v>
+      </c>
+      <c r="BH30">
+        <v>3.732279062271118</v>
+      </c>
+      <c r="BI30">
+        <v>6.250211954116821</v>
+      </c>
+      <c r="BJ30">
+        <v>1.75309956073761</v>
+      </c>
+      <c r="BK30">
+        <v>6.344564914703369</v>
+      </c>
+      <c r="BL30">
+        <v>-0.4374033128507158</v>
+      </c>
+      <c r="BM30">
+        <v>-0.7251874555898397</v>
+      </c>
+      <c r="BN30">
+        <v>-0.08657905595987003</v>
+      </c>
+      <c r="BO30">
+        <v>1.121357083961133</v>
+      </c>
+      <c r="BP30">
+        <v>2.069918492665239</v>
+      </c>
+      <c r="BQ30">
+        <v>1.743252281874076</v>
+      </c>
+      <c r="BR30">
+        <v>0.6536243731480846</v>
+      </c>
+      <c r="BS30">
+        <v>-0.1692031803268819</v>
+      </c>
+      <c r="BT30">
+        <v>2.674505361222896</v>
+      </c>
+      <c r="BU30">
+        <v>0.1401592774188001</v>
+      </c>
+      <c r="BV30">
+        <v>0.9118839793560487</v>
+      </c>
+      <c r="BW30">
+        <v>-0.1586421168615626</v>
+      </c>
+      <c r="BX30">
+        <v>-0.05720754605238332</v>
+      </c>
+      <c r="BY30">
+        <v>0.4937262453782885</v>
+      </c>
+      <c r="BZ30">
+        <v>0.271960909632702</v>
+      </c>
+      <c r="CA30">
+        <v>1.190497303514136</v>
+      </c>
+      <c r="CB30">
+        <v>0.2147243143339632</v>
+      </c>
+      <c r="CC30">
+        <v>1.745097277276363</v>
+      </c>
+      <c r="CD30">
+        <v>0.5720283000518687</v>
+      </c>
+      <c r="CE30">
+        <v>0.6796629547228554</v>
+      </c>
+      <c r="CF30">
+        <v>0.8348985465642683</v>
+      </c>
+      <c r="CG30">
+        <v>-0.6811377598166873</v>
+      </c>
+      <c r="CH30">
+        <v>0.3218390711959429</v>
+      </c>
+      <c r="CI30">
+        <v>0.9077822887253859</v>
+      </c>
+      <c r="CJ30">
+        <v>-0.9672216878046038</v>
+      </c>
+      <c r="CK30">
+        <v>-0.1379466768281216</v>
+      </c>
+      <c r="CL30">
+        <v>0.385840174130738</v>
+      </c>
+      <c r="CM30">
+        <v>-0.1303090036866205</v>
+      </c>
+      <c r="CN30">
+        <v>0.6241757637535982</v>
+      </c>
+      <c r="CO30">
+        <v>0.09294858899298175</v>
+      </c>
+      <c r="CP30">
+        <v>0.08593004936369662</v>
+      </c>
+      <c r="CQ30">
+        <v>-0.027179039054716</v>
+      </c>
+      <c r="CR30">
+        <v>0.09061217728241498</v>
+      </c>
+      <c r="CS30">
+        <v>0.5134466624130026</v>
+      </c>
+      <c r="CT30">
+        <v>-0.1031572275486547</v>
+      </c>
+      <c r="CU30">
+        <v>0.02295092454992482</v>
+      </c>
+      <c r="CV30">
+        <v>0.2051574713103299</v>
+      </c>
+      <c r="CW30">
+        <v>-0.3764902837890814</v>
+      </c>
+      <c r="CX30">
+        <v>0.1162597970812737</v>
+      </c>
+      <c r="CY30">
+        <v>0.3455807403220011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
